--- a/歷史資料/20241206_羽球.xlsx
+++ b/歷史資料/20241206_羽球.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E623"/>
+  <dimension ref="A1:E620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,17 +608,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024/12/07</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024/12/07</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024/12/08</t>
+          <t>2024/12/07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -770,17 +770,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024/12/08</t>
+          <t>2024/12/07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:00~19:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19:00~20:00</t>
+          <t>18:00~19:00</t>
         </is>
       </c>
     </row>
@@ -851,17 +851,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>19:00~20:00</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1553,17 +1553,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -1850,17 +1850,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2201,17 +2201,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2606,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024/12/14</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3308,17 +3308,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3740,17 +3740,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4128,14 +4128,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>汐止</t>
+          <t>南港</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4145,17 +4145,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -5306,17 +5306,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -5333,17 +5333,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -5360,17 +5360,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -5392,12 +5392,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6872,17 +6872,17 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -6899,17 +6899,17 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -6926,17 +6926,17 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -6953,17 +6953,17 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8492,7 +8492,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8529,7 +8529,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -8627,17 +8627,17 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -8654,17 +8654,17 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -8681,17 +8681,17 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -9950,7 +9950,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10122,7 +10122,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10247,17 +10247,17 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -10274,17 +10274,17 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -10301,17 +10301,17 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -10328,17 +10328,17 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -10436,7 +10436,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -10598,7 +10598,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>12:00~13:00</t>
         </is>
       </c>
     </row>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>12:00~13:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -11310,7 +11310,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽A</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -11418,7 +11418,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>羽A</t>
+          <t>羽C</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>羽C</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -11624,7 +11624,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽D</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -11688,7 +11688,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽E</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>羽D</t>
+          <t>羽F</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>羽E</t>
+          <t>羽B</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -11769,14 +11769,14 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>18:00~19:00</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>汐止</t>
+          <t>內湖</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -11786,24 +11786,24 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>羽F</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>汐止</t>
+          <t>內湖</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -11813,17 +11813,17 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>羽B</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>18:00~19:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -11840,7 +11840,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>18:00~19:00</t>
         </is>
       </c>
     </row>
@@ -12056,17 +12056,17 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/08</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12083,17 +12083,17 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/08</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>18:00~19:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>2024/12/08</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -12407,17 +12407,17 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12434,17 +12434,17 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -12606,7 +12606,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -12822,7 +12822,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -12839,17 +12839,17 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12866,17 +12866,17 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -12974,7 +12974,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -13038,7 +13038,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -13190,7 +13190,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -13271,17 +13271,17 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13298,17 +13298,17 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -13568,7 +13568,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -13649,7 +13649,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -13892,17 +13892,17 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13924,12 +13924,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -14297,17 +14297,17 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/15</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14324,17 +14324,17 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/15</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -14378,12 +14378,12 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -14405,12 +14405,12 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -14432,12 +14432,12 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -14540,7 +14540,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -14918,7 +14918,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15080,17 +15080,17 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15107,17 +15107,17 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15134,17 +15134,17 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -15431,7 +15431,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -15512,7 +15512,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15674,7 +15674,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15728,17 +15728,17 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15755,17 +15755,17 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15782,17 +15782,17 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -15998,7 +15998,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -16251,7 +16251,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -16268,7 +16268,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -16278,7 +16278,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -16295,7 +16295,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -16322,7 +16322,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16386,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -16457,17 +16457,17 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -16484,17 +16484,17 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -16511,17 +16511,17 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -16538,7 +16538,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -16781,7 +16781,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -16791,7 +16791,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -16818,7 +16818,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -16862,7 +16862,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -16899,7 +16899,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -17078,7 +17078,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -17115,7 +17115,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -17142,7 +17142,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -17168,87 +17168,6 @@
         </is>
       </c>
       <c r="E620" t="inlineStr">
-        <is>
-          <t>13:00~14:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>內湖</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>羽球</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr">
-        <is>
-          <t>羽4</t>
-        </is>
-      </c>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>2024/12/19</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>14:00~15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>內湖</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>羽球</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>羽5</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>2024/12/19</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>14:00~15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>內湖</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>羽球</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr">
-        <is>
-          <t>羽6</t>
-        </is>
-      </c>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>2024/12/19</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr">
         <is>
           <t>14:00~15:00</t>
         </is>

--- a/歷史資料/20241206_羽球.xlsx
+++ b/歷史資料/20241206_羽球.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E620"/>
+  <dimension ref="A1:E623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/08</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12137,17 +12137,17 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/08</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/08</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -12407,17 +12407,17 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -12434,17 +12434,17 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -12461,17 +12461,17 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -12606,7 +12606,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -12844,12 +12844,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -12871,12 +12871,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -12893,17 +12893,17 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -12974,7 +12974,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -13038,7 +13038,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -13190,7 +13190,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -13276,12 +13276,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -13298,17 +13298,17 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -13325,17 +13325,17 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -13352,7 +13352,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -13568,7 +13568,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13649,7 +13649,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -13659,7 +13659,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -13892,17 +13892,17 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -13919,17 +13919,17 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -13946,17 +13946,17 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -14302,12 +14302,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -14329,12 +14329,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -14356,12 +14356,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -14378,12 +14378,12 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/15</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -14405,12 +14405,12 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/15</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -14432,12 +14432,12 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/15</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -14540,7 +14540,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -14918,7 +14918,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -15080,17 +15080,17 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15107,17 +15107,17 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15134,17 +15134,17 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15431,7 +15431,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -15512,7 +15512,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -15674,7 +15674,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -15728,17 +15728,17 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15755,17 +15755,17 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15782,17 +15782,17 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -15998,7 +15998,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -16251,7 +16251,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -16268,7 +16268,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -16278,7 +16278,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -16295,7 +16295,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -16322,7 +16322,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16386,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>15:00~16:00</t>
+          <t>14:00~15:00</t>
         </is>
       </c>
     </row>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>16:00~17:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>17:00~18:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -16457,17 +16457,17 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>15:00~16:00</t>
         </is>
       </c>
     </row>
@@ -16484,17 +16484,17 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>16:00~17:00</t>
         </is>
       </c>
     </row>
@@ -16511,17 +16511,17 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>06:00~07:00</t>
+          <t>17:00~18:00</t>
         </is>
       </c>
     </row>
@@ -16538,7 +16538,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>07:00~08:00</t>
+          <t>06:00~07:00</t>
         </is>
       </c>
     </row>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -16781,7 +16781,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -16791,7 +16791,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -16818,7 +16818,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>08:00~09:00</t>
+          <t>07:00~08:00</t>
         </is>
       </c>
     </row>
@@ -16862,7 +16862,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>09:00~10:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -16899,7 +16899,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>10:00~11:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>羽3</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>08:00~09:00</t>
         </is>
       </c>
     </row>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>09:00~10:00</t>
         </is>
       </c>
     </row>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>11:00~12:00</t>
+          <t>10:00~11:00</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>羽6</t>
+          <t>羽3</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>羽1</t>
+          <t>羽4</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>羽2</t>
+          <t>羽5</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -17078,7 +17078,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽6</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>13:00~14:00</t>
+          <t>11:00~12:00</t>
         </is>
       </c>
     </row>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>羽4</t>
+          <t>羽1</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -17115,7 +17115,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>羽5</t>
+          <t>羽2</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -17142,7 +17142,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>14:00~15:00</t>
+          <t>13:00~14:00</t>
         </is>
       </c>
     </row>
@@ -17159,15 +17159,96 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
+          <t>羽4</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>2024/12/19</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>13:00~14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>內湖</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>羽球</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>羽4</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>2024/12/19</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>14:00~15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>內湖</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>羽球</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>羽5</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>2024/12/19</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>14:00~15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>內湖</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>羽球</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
           <t>羽6</t>
         </is>
       </c>
-      <c r="D620" t="inlineStr">
+      <c r="D623" t="inlineStr">
         <is>
           <t>2024/12/19</t>
         </is>
       </c>
-      <c r="E620" t="inlineStr">
+      <c r="E623" t="inlineStr">
         <is>
           <t>14:00~15:00</t>
         </is>
